--- a/【管理】画面設計書_グループ詳細.xlsx
+++ b/【管理】画面設計書_グループ詳細.xlsx
@@ -9,13 +9,17 @@
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
     <sheet name="【管理】グループ詳細_画面設計" sheetId="1" r:id="rId2"/>
+    <sheet name="【管理】グループ詳細（写真追加画面）_画面設計" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="146">
   <si>
     <t>星</t>
     <phoneticPr fontId="2"/>
@@ -330,10 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>星</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>グループ名</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -413,6 +413,676 @@
   </si>
   <si>
     <t>新規にグループを追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入澤</t>
+    <rPh sb="0" eb="2">
+      <t>イリサワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■画面イメージ（初期表示時）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>撮影日</t>
+    <rPh sb="0" eb="3">
+      <t>サツエイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016-03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>撮影場所</t>
+    <rPh sb="0" eb="2">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風景</t>
+    <rPh sb="0" eb="2">
+      <t>フウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <rPh sb="0" eb="2">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食べ物</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開日</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■画面イメージ（検索後）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016-03-20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開日</t>
+    <rPh sb="0" eb="3">
+      <t>コウカイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016-03-20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風景,人物</t>
+    <rPh sb="0" eb="2">
+      <t>フウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○○○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索条件</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストエリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索するタイトルを入力する。（部分一致）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索する撮影場所を入力する。（部分一致）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索するカテゴリを選択する。(複数選択可)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力された検索条件で検索する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当の検索結果のページへ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像のタイトルを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像の撮影日を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サツエイビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像のカテゴリを表示する。（該当のカテゴリをカンマ区切りで全て表示）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像のグループを表示する。（該当のグループをカンマ改行区切りで全て表示）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像の撮影場所を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索された画像の公開日を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウカイビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーマット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーマット：yyyy-mm-dd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【管理】画面設計書_グループ詳細（写真追加）</t>
+    <rPh sb="14" eb="16">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>写真追加</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加済み</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>撮影期間</t>
+    <rPh sb="0" eb="2">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開期間</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索する撮影期間を入力する。カレンダーから入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索する公開期間を入力する。カレンダーから入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>写真追加画面を閉じる。</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当の画像をグループに追加する。同時に写真追加画面を閉じる。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※画面はポップアップで表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>写真追加画面追加。</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -420,7 +1090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +1128,32 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +1175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,36 +1601,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,36 +1608,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -997,12 +1637,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2001,6 +2777,1572 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130549</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1581150"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="1981200"/>
+          <a:ext cx="273424" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3590925"/>
+          <a:ext cx="276225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3971925"/>
+          <a:ext cx="276225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="5991224"/>
+          <a:ext cx="266700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130549</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>36979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="9182100"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121024</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="9582150"/>
+          <a:ext cx="273424" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="11391900"/>
+          <a:ext cx="276225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="11772900"/>
+          <a:ext cx="276225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="14811375"/>
+          <a:ext cx="276225" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="13401675"/>
+          <a:ext cx="276225" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="6991350"/>
+          <a:ext cx="1000125" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="14782800"/>
+          <a:ext cx="1000125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="4400550"/>
+          <a:ext cx="257176" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="13173075"/>
+          <a:ext cx="428625" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="16668750"/>
+          <a:ext cx="276225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="16659225"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895599" y="16649700"/>
+          <a:ext cx="381000" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="657225" cy="438150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647826" y="16487775"/>
+          <a:ext cx="657225" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="657225" cy="438150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657351" y="17078325"/>
+          <a:ext cx="657225" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="16478250"/>
+          <a:ext cx="276225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="17259300"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="16649700"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="16668750"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="14249400"/>
+          <a:ext cx="457200" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="14039851"/>
+          <a:ext cx="561975" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="1400175"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -2291,7 +4633,7 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -2300,675 +4642,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="33" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="29">
+      <c r="V1" s="41"/>
+      <c r="W1" s="43">
         <v>42450</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="29">
-        <v>42471</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="43">
+        <v>42476</v>
+      </c>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34" t="s">
+      <c r="V2" s="41"/>
+      <c r="W2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B5" s="11">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="43">
         <v>42450</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
         <f t="shared" ref="B6:B20" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="43">
         <v>42471</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
+      <c r="C7" s="43">
+        <v>42476</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:AA4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:AA5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:AA6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:AA7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:AA8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:AA9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:AA10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:AA11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:AA12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:AA13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:AA14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:AA15"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:AA19"/>
     <mergeCell ref="C20:E20"/>
@@ -2979,6 +5287,44 @@
     <mergeCell ref="F17:AA17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:AA18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AA13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AA14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AA15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AA10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AA11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AA12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:AA7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:AA8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AA9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:AA4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:AA5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:AA6"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,96 +5345,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="33" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="29">
+      <c r="V1" s="41"/>
+      <c r="W1" s="43">
         <v>42450</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="29">
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="43">
         <v>42471</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34" t="s">
+      <c r="V2" s="41"/>
+      <c r="W2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -3217,7 +5563,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -3276,7 +5622,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3312,7 +5658,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
       <c r="J12" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -3659,7 +6005,7 @@
     <row r="22" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -3686,29 +6032,29 @@
     </row>
     <row r="23" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="T23" s="43"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="52"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -3719,29 +6065,29 @@
     </row>
     <row r="24" spans="2:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
-      <c r="D24" s="39">
+      <c r="D24" s="29">
         <v>1</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="51"/>
+      <c r="E24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" s="57"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -4027,7 +6373,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -4119,7 +6465,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="16"/>
       <c r="J39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -4325,7 +6671,7 @@
       <c r="I44" s="25">
         <v>30</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="32">
         <v>31</v>
       </c>
       <c r="K44" s="25"/>
@@ -4466,7 +6812,7 @@
     <row r="49" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B49" s="5"/>
       <c r="D49" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -4493,30 +6839,30 @@
     </row>
     <row r="50" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41" t="s">
+      <c r="D50" s="30"/>
+      <c r="E50" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="U50" s="43"/>
+      <c r="F50" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" s="52"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
@@ -4527,30 +6873,30 @@
     </row>
     <row r="51" spans="2:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29">
         <v>1</v>
       </c>
-      <c r="F51" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="U51" s="51"/>
+      <c r="F51" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="U51" s="57"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -4561,30 +6907,30 @@
     </row>
     <row r="52" spans="2:31" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B52" s="5"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29">
         <v>1</v>
       </c>
-      <c r="F52" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="U52" s="51"/>
+      <c r="F52" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="U52" s="57"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
@@ -4597,22 +6943,22 @@
       <c r="B53" s="5"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
@@ -4772,422 +7118,422 @@
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34" t="s">
+      <c r="C61" s="42"/>
+      <c r="D61" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34" t="s">
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="36" t="s">
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
-      <c r="AB61" s="37"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="38"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="60"/>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B62" s="34">
+      <c r="B62" s="42">
         <v>1</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="34" t="s">
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="35" t="s">
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47"/>
+      <c r="Z62" s="47"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="47"/>
+      <c r="AC62" s="47"/>
+      <c r="AD62" s="47"/>
+      <c r="AE62" s="47"/>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B63" s="34">
+      <c r="B63" s="42">
         <v>2</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="34" t="s">
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="35" t="s">
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="47"/>
+      <c r="Z63" s="47"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="47"/>
+      <c r="AE63" s="47"/>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B64" s="34">
+      <c r="B64" s="42">
         <v>3</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="34" t="s">
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="35" t="s">
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="47"/>
+      <c r="AE64" s="47"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B65" s="34">
+      <c r="B65" s="42">
         <v>4</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
+      <c r="AD65" s="47"/>
+      <c r="AE65" s="47"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B66" s="42">
+        <v>5</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="47"/>
+      <c r="AE66" s="47"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B67" s="42">
+        <v>6</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="47"/>
+      <c r="AE67" s="47"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B68" s="42">
+        <v>7</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B66" s="34">
-        <v>5</v>
-      </c>
-      <c r="C66" s="34" t="s">
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B69" s="42">
+        <v>8</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D69" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="47"/>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B70" s="42">
+        <v>9</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="34" t="s">
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B67" s="34">
-        <v>6</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B68" s="34">
-        <v>7</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-      <c r="AC68" s="35"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B69" s="34">
-        <v>8</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B70" s="34">
-        <v>9</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="35" t="s">
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="35"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="47"/>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
@@ -5195,172 +7541,145 @@
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34" t="s">
+      <c r="C73" s="42"/>
+      <c r="D73" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34" t="s">
+      <c r="E73" s="42"/>
+      <c r="F73" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="36" t="s">
+      <c r="G73" s="42"/>
+      <c r="H73" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I73" s="38"/>
-      <c r="J73" s="36" t="s">
+      <c r="I73" s="60"/>
+      <c r="J73" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="37"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="36" t="s">
+      <c r="K73" s="59"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="36" t="s">
+      <c r="N73" s="59"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="37"/>
-      <c r="AB73" s="37"/>
-      <c r="AC73" s="38"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="59"/>
+      <c r="S73" s="59"/>
+      <c r="T73" s="59"/>
+      <c r="U73" s="59"/>
+      <c r="V73" s="59"/>
+      <c r="W73" s="59"/>
+      <c r="X73" s="59"/>
+      <c r="Y73" s="59"/>
+      <c r="Z73" s="59"/>
+      <c r="AA73" s="59"/>
+      <c r="AB73" s="59"/>
+      <c r="AC73" s="60"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B74" s="34">
+      <c r="B74" s="42">
         <v>1</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34" t="s">
+      <c r="C74" s="42"/>
+      <c r="D74" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="36" t="s">
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="38"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
-      <c r="AB74" s="37"/>
-      <c r="AC74" s="38"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="60"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="59"/>
+      <c r="Y74" s="59"/>
+      <c r="Z74" s="59"/>
+      <c r="AA74" s="59"/>
+      <c r="AB74" s="59"/>
+      <c r="AC74" s="60"/>
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B75" s="34">
+      <c r="B75" s="42">
         <v>2</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34" t="s">
+      <c r="C75" s="42"/>
+      <c r="D75" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="36" t="s">
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="37"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="34" t="s">
+      <c r="K75" s="59"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:AE67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:AE65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:AE66"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="F51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="F52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="N64:AE64"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:AE61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="N62:AE62"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:AC73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P74:AC74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:AE70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:AE69"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:AE68"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="P75:AC75"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:L75"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -5377,29 +7696,3761 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="N63:AE63"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="P75:AC75"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:AE68"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:AE70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:AE69"/>
-    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:AC73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="P74:AC74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="N64:AE64"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:AE61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="F51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="F52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:AE67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:AE65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:AE66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="4.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="41"/>
+      <c r="W1" s="43">
+        <v>42476</v>
+      </c>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="21"/>
+    </row>
+    <row r="6" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="22"/>
+      <c r="C6" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="23"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B7" s="22"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="23"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B8" s="22"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="23"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="23"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B10" s="22"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="23"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="23"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B12" s="22"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="20">
+        <v>2</v>
+      </c>
+      <c r="K12" s="20">
+        <v>3</v>
+      </c>
+      <c r="L12" s="20">
+        <v>4</v>
+      </c>
+      <c r="M12" s="20">
+        <v>5</v>
+      </c>
+      <c r="N12" s="20">
+        <v>6</v>
+      </c>
+      <c r="O12" s="21">
+        <v>7</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="19">
+        <v>1</v>
+      </c>
+      <c r="T12" s="20">
+        <v>2</v>
+      </c>
+      <c r="U12" s="20">
+        <v>3</v>
+      </c>
+      <c r="V12" s="20">
+        <v>4</v>
+      </c>
+      <c r="W12" s="20">
+        <v>5</v>
+      </c>
+      <c r="X12" s="20">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="23"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="22">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6">
+        <v>9</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6">
+        <v>11</v>
+      </c>
+      <c r="M13" s="6">
+        <v>12</v>
+      </c>
+      <c r="N13" s="6">
+        <v>13</v>
+      </c>
+      <c r="O13" s="23">
+        <v>14</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="22">
+        <v>8</v>
+      </c>
+      <c r="T13" s="6">
+        <v>9</v>
+      </c>
+      <c r="U13" s="6">
+        <v>10</v>
+      </c>
+      <c r="V13" s="6">
+        <v>11</v>
+      </c>
+      <c r="W13" s="6">
+        <v>12</v>
+      </c>
+      <c r="X13" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B14" s="22"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="22">
+        <v>15</v>
+      </c>
+      <c r="J14" s="6">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6">
+        <v>17</v>
+      </c>
+      <c r="L14" s="6">
+        <v>18</v>
+      </c>
+      <c r="M14" s="6">
+        <v>19</v>
+      </c>
+      <c r="N14" s="6">
+        <v>20</v>
+      </c>
+      <c r="O14" s="23">
+        <v>21</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="22">
+        <v>15</v>
+      </c>
+      <c r="T14" s="6">
+        <v>16</v>
+      </c>
+      <c r="U14" s="6">
+        <v>17</v>
+      </c>
+      <c r="V14" s="6">
+        <v>18</v>
+      </c>
+      <c r="W14" s="6">
+        <v>19</v>
+      </c>
+      <c r="X14" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="23">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="23"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="22">
+        <v>22</v>
+      </c>
+      <c r="J15" s="6">
+        <v>23</v>
+      </c>
+      <c r="K15" s="6">
+        <v>24</v>
+      </c>
+      <c r="L15" s="6">
+        <v>25</v>
+      </c>
+      <c r="M15" s="6">
+        <v>26</v>
+      </c>
+      <c r="N15" s="6">
+        <v>27</v>
+      </c>
+      <c r="O15" s="23">
+        <v>28</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="22">
+        <v>22</v>
+      </c>
+      <c r="T15" s="6">
+        <v>23</v>
+      </c>
+      <c r="U15" s="6">
+        <v>24</v>
+      </c>
+      <c r="V15" s="6">
+        <v>25</v>
+      </c>
+      <c r="W15" s="6">
+        <v>26</v>
+      </c>
+      <c r="X15" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="23">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="23"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="24">
+        <v>29</v>
+      </c>
+      <c r="J16" s="25">
+        <v>30</v>
+      </c>
+      <c r="K16" s="25">
+        <v>31</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="24">
+        <v>29</v>
+      </c>
+      <c r="T16" s="25">
+        <v>30</v>
+      </c>
+      <c r="U16" s="25">
+        <v>31</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="23"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="23"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B19" s="22"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B20" s="22"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="23"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B21" s="22"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="23"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B22" s="22"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="23"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B23" s="22"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="23"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B24" s="22"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20">
+        <v>2</v>
+      </c>
+      <c r="K24" s="20">
+        <v>3</v>
+      </c>
+      <c r="L24" s="20">
+        <v>4</v>
+      </c>
+      <c r="M24" s="20">
+        <v>5</v>
+      </c>
+      <c r="N24" s="20">
+        <v>6</v>
+      </c>
+      <c r="O24" s="21">
+        <v>7</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="19">
+        <v>1</v>
+      </c>
+      <c r="T24" s="20">
+        <v>2</v>
+      </c>
+      <c r="U24" s="20">
+        <v>3</v>
+      </c>
+      <c r="V24" s="20">
+        <v>4</v>
+      </c>
+      <c r="W24" s="20">
+        <v>5</v>
+      </c>
+      <c r="X24" s="20">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="23"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B25" s="22"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="22">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6">
+        <v>9</v>
+      </c>
+      <c r="K25" s="6">
+        <v>10</v>
+      </c>
+      <c r="L25" s="6">
+        <v>11</v>
+      </c>
+      <c r="M25" s="6">
+        <v>12</v>
+      </c>
+      <c r="N25" s="6">
+        <v>13</v>
+      </c>
+      <c r="O25" s="23">
+        <v>14</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="22">
+        <v>8</v>
+      </c>
+      <c r="T25" s="6">
+        <v>9</v>
+      </c>
+      <c r="U25" s="6">
+        <v>10</v>
+      </c>
+      <c r="V25" s="6">
+        <v>11</v>
+      </c>
+      <c r="W25" s="6">
+        <v>12</v>
+      </c>
+      <c r="X25" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="23">
+        <v>14</v>
+      </c>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="23"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B26" s="22"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="22">
+        <v>15</v>
+      </c>
+      <c r="J26" s="6">
+        <v>16</v>
+      </c>
+      <c r="K26" s="6">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6">
+        <v>18</v>
+      </c>
+      <c r="M26" s="6">
+        <v>19</v>
+      </c>
+      <c r="N26" s="6">
+        <v>20</v>
+      </c>
+      <c r="O26" s="23">
+        <v>21</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="22">
+        <v>15</v>
+      </c>
+      <c r="T26" s="6">
+        <v>16</v>
+      </c>
+      <c r="U26" s="6">
+        <v>17</v>
+      </c>
+      <c r="V26" s="6">
+        <v>18</v>
+      </c>
+      <c r="W26" s="6">
+        <v>19</v>
+      </c>
+      <c r="X26" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="23">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="23"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="22">
+        <v>22</v>
+      </c>
+      <c r="J27" s="6">
+        <v>23</v>
+      </c>
+      <c r="K27" s="6">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <v>25</v>
+      </c>
+      <c r="M27" s="6">
+        <v>26</v>
+      </c>
+      <c r="N27" s="6">
+        <v>27</v>
+      </c>
+      <c r="O27" s="23">
+        <v>28</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="22">
+        <v>22</v>
+      </c>
+      <c r="T27" s="6">
+        <v>23</v>
+      </c>
+      <c r="U27" s="6">
+        <v>24</v>
+      </c>
+      <c r="V27" s="6">
+        <v>25</v>
+      </c>
+      <c r="W27" s="6">
+        <v>26</v>
+      </c>
+      <c r="X27" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="23">
+        <v>28</v>
+      </c>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="23"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="24">
+        <v>29</v>
+      </c>
+      <c r="J28" s="25">
+        <v>30</v>
+      </c>
+      <c r="K28" s="25">
+        <v>31</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="24">
+        <v>29</v>
+      </c>
+      <c r="T28" s="25">
+        <v>30</v>
+      </c>
+      <c r="U28" s="25">
+        <v>31</v>
+      </c>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="23"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="23"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="23"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="23"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="23"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="26"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="21"/>
+    </row>
+    <row r="38" spans="2:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="22"/>
+      <c r="C38" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="23"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B39" s="22"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="23"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B40" s="22"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="23"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B41" s="22"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="23"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B42" s="22"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="23"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B43" s="22"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="23"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B44" s="22"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="19">
+        <v>1</v>
+      </c>
+      <c r="J44" s="20">
+        <v>2</v>
+      </c>
+      <c r="K44" s="20">
+        <v>3</v>
+      </c>
+      <c r="L44" s="20">
+        <v>4</v>
+      </c>
+      <c r="M44" s="20">
+        <v>5</v>
+      </c>
+      <c r="N44" s="20">
+        <v>6</v>
+      </c>
+      <c r="O44" s="21">
+        <v>7</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="19">
+        <v>1</v>
+      </c>
+      <c r="T44" s="20">
+        <v>2</v>
+      </c>
+      <c r="U44" s="20">
+        <v>3</v>
+      </c>
+      <c r="V44" s="20">
+        <v>4</v>
+      </c>
+      <c r="W44" s="20">
+        <v>5</v>
+      </c>
+      <c r="X44" s="20">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="23"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B45" s="22"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="22">
+        <v>8</v>
+      </c>
+      <c r="J45" s="6">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6">
+        <v>13</v>
+      </c>
+      <c r="O45" s="23">
+        <v>14</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="22">
+        <v>8</v>
+      </c>
+      <c r="T45" s="6">
+        <v>9</v>
+      </c>
+      <c r="U45" s="6">
+        <v>10</v>
+      </c>
+      <c r="V45" s="6">
+        <v>11</v>
+      </c>
+      <c r="W45" s="6">
+        <v>12</v>
+      </c>
+      <c r="X45" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y45" s="23">
+        <v>14</v>
+      </c>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="23"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B46" s="22"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="22">
+        <v>15</v>
+      </c>
+      <c r="J46" s="6">
+        <v>16</v>
+      </c>
+      <c r="K46" s="6">
+        <v>17</v>
+      </c>
+      <c r="L46" s="6">
+        <v>18</v>
+      </c>
+      <c r="M46" s="6">
+        <v>19</v>
+      </c>
+      <c r="N46" s="64">
+        <v>20</v>
+      </c>
+      <c r="O46" s="23">
+        <v>21</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="22">
+        <v>15</v>
+      </c>
+      <c r="T46" s="6">
+        <v>16</v>
+      </c>
+      <c r="U46" s="6">
+        <v>17</v>
+      </c>
+      <c r="V46" s="6">
+        <v>18</v>
+      </c>
+      <c r="W46" s="6">
+        <v>19</v>
+      </c>
+      <c r="X46" s="76">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="23">
+        <v>21</v>
+      </c>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="23"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B47" s="22"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="22">
+        <v>22</v>
+      </c>
+      <c r="J47" s="6">
+        <v>23</v>
+      </c>
+      <c r="K47" s="6">
+        <v>24</v>
+      </c>
+      <c r="L47" s="6">
+        <v>25</v>
+      </c>
+      <c r="M47" s="6">
+        <v>26</v>
+      </c>
+      <c r="N47" s="6">
+        <v>27</v>
+      </c>
+      <c r="O47" s="23">
+        <v>28</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="22">
+        <v>22</v>
+      </c>
+      <c r="T47" s="6">
+        <v>23</v>
+      </c>
+      <c r="U47" s="6">
+        <v>24</v>
+      </c>
+      <c r="V47" s="6">
+        <v>25</v>
+      </c>
+      <c r="W47" s="6">
+        <v>26</v>
+      </c>
+      <c r="X47" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y47" s="23">
+        <v>28</v>
+      </c>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="23"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B48" s="22"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="24">
+        <v>29</v>
+      </c>
+      <c r="J48" s="25">
+        <v>30</v>
+      </c>
+      <c r="K48" s="25">
+        <v>31</v>
+      </c>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="24">
+        <v>29</v>
+      </c>
+      <c r="T48" s="25">
+        <v>30</v>
+      </c>
+      <c r="U48" s="32">
+        <v>31</v>
+      </c>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="23"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B49" s="22"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="23"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B50" s="22"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="23"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B51" s="22"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="23"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B52" s="22"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="23"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B53" s="22"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="27"/>
+      <c r="L53" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O53" s="11"/>
+      <c r="P53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="23"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B54" s="22"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="23"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B55" s="22"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="23"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B56" s="22"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="23"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B57" s="22"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="65">
+        <v>1</v>
+      </c>
+      <c r="J57" s="20">
+        <v>2</v>
+      </c>
+      <c r="K57" s="20">
+        <v>3</v>
+      </c>
+      <c r="L57" s="20">
+        <v>4</v>
+      </c>
+      <c r="M57" s="20">
+        <v>5</v>
+      </c>
+      <c r="N57" s="20">
+        <v>6</v>
+      </c>
+      <c r="O57" s="21">
+        <v>7</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="23"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B58" s="22"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="22">
+        <v>8</v>
+      </c>
+      <c r="J58" s="6">
+        <v>9</v>
+      </c>
+      <c r="K58" s="6">
+        <v>10</v>
+      </c>
+      <c r="L58" s="6">
+        <v>11</v>
+      </c>
+      <c r="M58" s="6">
+        <v>12</v>
+      </c>
+      <c r="N58" s="6">
+        <v>13</v>
+      </c>
+      <c r="O58" s="23">
+        <v>14</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="23"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B59" s="22"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="22">
+        <v>15</v>
+      </c>
+      <c r="J59" s="6">
+        <v>16</v>
+      </c>
+      <c r="K59" s="6">
+        <v>17</v>
+      </c>
+      <c r="L59" s="6">
+        <v>18</v>
+      </c>
+      <c r="M59" s="6">
+        <v>19</v>
+      </c>
+      <c r="N59" s="6">
+        <v>20</v>
+      </c>
+      <c r="O59" s="23">
+        <v>21</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="23"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B60" s="22"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="22">
+        <v>22</v>
+      </c>
+      <c r="J60" s="6">
+        <v>23</v>
+      </c>
+      <c r="K60" s="6">
+        <v>24</v>
+      </c>
+      <c r="L60" s="6">
+        <v>25</v>
+      </c>
+      <c r="M60" s="6">
+        <v>26</v>
+      </c>
+      <c r="N60" s="6">
+        <v>27</v>
+      </c>
+      <c r="O60" s="23">
+        <v>28</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="23"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B61" s="22"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="24">
+        <v>29</v>
+      </c>
+      <c r="J61" s="25">
+        <v>30</v>
+      </c>
+      <c r="K61" s="25">
+        <v>31</v>
+      </c>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="23"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B62" s="22"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="23"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B63" s="22"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="23"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B64" s="22"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="23"/>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B65" s="22"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="23"/>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B66" s="22"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="67">
+        <v>2</v>
+      </c>
+      <c r="H66" s="67">
+        <v>3</v>
+      </c>
+      <c r="I66" s="67">
+        <v>4</v>
+      </c>
+      <c r="J66" s="67">
+        <v>5</v>
+      </c>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="23"/>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B67" s="22"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="23"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B68" s="22"/>
+      <c r="C68" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="R68" s="69"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="U68" s="69"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="X68" s="69"/>
+      <c r="Y68" s="69"/>
+      <c r="Z68" s="70"/>
+      <c r="AA68" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="23"/>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B69" s="22"/>
+      <c r="C69" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="R69" s="20"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="72"/>
+      <c r="W69" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="73"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="23"/>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B71" s="22"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="26"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="23"/>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B72" s="22"/>
+      <c r="C72" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="R72" s="20"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="U72" s="20"/>
+      <c r="V72" s="72"/>
+      <c r="W72" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="73"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="23"/>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B74" s="22"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="26"/>
+      <c r="AA74" s="25"/>
+      <c r="AB74" s="26"/>
+      <c r="AC74" s="23"/>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B75" s="22"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="23"/>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+      <c r="AA76" s="25"/>
+      <c r="AB76" s="25"/>
+      <c r="AC76" s="26"/>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B79" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="59"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="59"/>
+      <c r="U79" s="59"/>
+      <c r="V79" s="59"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="59"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="59"/>
+      <c r="AB79" s="59"/>
+      <c r="AC79" s="60"/>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B80" s="74"/>
+      <c r="C80" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="75"/>
+      <c r="N80" s="75"/>
+      <c r="O80" s="75"/>
+      <c r="P80" s="75"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="75"/>
+      <c r="S80" s="75"/>
+      <c r="T80" s="75"/>
+      <c r="U80" s="75"/>
+      <c r="V80" s="75"/>
+      <c r="W80" s="75"/>
+      <c r="X80" s="75"/>
+      <c r="Y80" s="75"/>
+      <c r="Z80" s="75"/>
+      <c r="AA80" s="75"/>
+      <c r="AB80" s="75"/>
+      <c r="AC80" s="75"/>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B81" s="74"/>
+      <c r="C81" s="11">
+        <v>1</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="59"/>
+      <c r="V81" s="59"/>
+      <c r="W81" s="59"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="59"/>
+      <c r="Z81" s="59"/>
+      <c r="AA81" s="59"/>
+      <c r="AB81" s="59"/>
+      <c r="AC81" s="60"/>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B82" s="74"/>
+      <c r="C82" s="11">
+        <v>2</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="59"/>
+      <c r="V82" s="59"/>
+      <c r="W82" s="59"/>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="59"/>
+      <c r="Z82" s="59"/>
+      <c r="AA82" s="59"/>
+      <c r="AB82" s="59"/>
+      <c r="AC82" s="60"/>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B83" s="74"/>
+      <c r="C83" s="11">
+        <v>3</v>
+      </c>
+      <c r="D83" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="M83" s="59"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="59"/>
+      <c r="U83" s="59"/>
+      <c r="V83" s="59"/>
+      <c r="W83" s="59"/>
+      <c r="X83" s="59"/>
+      <c r="Y83" s="59"/>
+      <c r="Z83" s="59"/>
+      <c r="AA83" s="59"/>
+      <c r="AB83" s="59"/>
+      <c r="AC83" s="60"/>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B84" s="74"/>
+      <c r="C84" s="11">
+        <v>4</v>
+      </c>
+      <c r="D84" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
+      <c r="X84" s="59"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="59"/>
+      <c r="AA84" s="59"/>
+      <c r="AB84" s="59"/>
+      <c r="AC84" s="60"/>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B85" s="74"/>
+      <c r="C85" s="11">
+        <v>5</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
+      <c r="X85" s="59"/>
+      <c r="Y85" s="59"/>
+      <c r="Z85" s="59"/>
+      <c r="AA85" s="59"/>
+      <c r="AB85" s="59"/>
+      <c r="AC85" s="60"/>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B86" s="74"/>
+      <c r="C86" s="11">
+        <v>6</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
+      <c r="X86" s="59"/>
+      <c r="Y86" s="59"/>
+      <c r="Z86" s="59"/>
+      <c r="AA86" s="59"/>
+      <c r="AB86" s="59"/>
+      <c r="AC86" s="60"/>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B87" s="74"/>
+      <c r="C87" s="11">
+        <v>16</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="59"/>
+      <c r="AA87" s="59"/>
+      <c r="AB87" s="59"/>
+      <c r="AC87" s="60"/>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B88" s="74"/>
+      <c r="C88" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="75"/>
+      <c r="O88" s="75"/>
+      <c r="P88" s="75"/>
+      <c r="Q88" s="75"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="75"/>
+      <c r="T88" s="75"/>
+      <c r="U88" s="75"/>
+      <c r="V88" s="75"/>
+      <c r="W88" s="75"/>
+      <c r="X88" s="75"/>
+      <c r="Y88" s="75"/>
+      <c r="Z88" s="75"/>
+      <c r="AA88" s="75"/>
+      <c r="AB88" s="75"/>
+      <c r="AC88" s="75"/>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B89" s="74"/>
+      <c r="C89" s="11">
+        <v>7</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59"/>
+      <c r="S89" s="59"/>
+      <c r="T89" s="59"/>
+      <c r="U89" s="59"/>
+      <c r="V89" s="59"/>
+      <c r="W89" s="59"/>
+      <c r="X89" s="59"/>
+      <c r="Y89" s="59"/>
+      <c r="Z89" s="59"/>
+      <c r="AA89" s="59"/>
+      <c r="AB89" s="59"/>
+      <c r="AC89" s="60"/>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B90" s="74"/>
+      <c r="C90" s="11">
+        <v>8</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="42"/>
+      <c r="X90" s="42"/>
+      <c r="Y90" s="42"/>
+      <c r="Z90" s="42"/>
+      <c r="AA90" s="42"/>
+      <c r="AB90" s="42"/>
+      <c r="AC90" s="42"/>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B91" s="74"/>
+      <c r="C91" s="11">
+        <v>9</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="42"/>
+      <c r="Y91" s="42"/>
+      <c r="Z91" s="42"/>
+      <c r="AA91" s="42"/>
+      <c r="AB91" s="42"/>
+      <c r="AC91" s="42"/>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B92" s="74"/>
+      <c r="C92" s="11">
+        <v>10</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="42"/>
+      <c r="X92" s="42"/>
+      <c r="Y92" s="42"/>
+      <c r="Z92" s="42"/>
+      <c r="AA92" s="42"/>
+      <c r="AB92" s="42"/>
+      <c r="AC92" s="42"/>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B93" s="74"/>
+      <c r="C93" s="11">
+        <v>11</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="42"/>
+      <c r="X93" s="42"/>
+      <c r="Y93" s="42"/>
+      <c r="Z93" s="42"/>
+      <c r="AA93" s="42"/>
+      <c r="AB93" s="42"/>
+      <c r="AC93" s="42"/>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B94" s="74"/>
+      <c r="C94" s="11">
+        <v>12</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="42"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="42"/>
+      <c r="W94" s="42"/>
+      <c r="X94" s="42"/>
+      <c r="Y94" s="42"/>
+      <c r="Z94" s="42"/>
+      <c r="AA94" s="42"/>
+      <c r="AB94" s="42"/>
+      <c r="AC94" s="42"/>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B95" s="74"/>
+      <c r="C95" s="11">
+        <v>13</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="42"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="42"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="42"/>
+      <c r="X95" s="42"/>
+      <c r="Y95" s="42"/>
+      <c r="Z95" s="42"/>
+      <c r="AA95" s="42"/>
+      <c r="AB95" s="42"/>
+      <c r="AC95" s="42"/>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B96" s="74"/>
+      <c r="C96" s="11">
+        <v>14</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42"/>
+      <c r="AA96" s="42"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="42"/>
+    </row>
+    <row r="97" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B97" s="74"/>
+      <c r="C97" s="11">
+        <v>15</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="42"/>
+      <c r="W97" s="42"/>
+      <c r="X97" s="42"/>
+      <c r="Y97" s="42"/>
+      <c r="Z97" s="42"/>
+      <c r="AA97" s="42"/>
+      <c r="AB97" s="42"/>
+      <c r="AC97" s="42"/>
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B100" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="42"/>
+      <c r="W100" s="42"/>
+      <c r="X100" s="42"/>
+      <c r="Y100" s="42"/>
+      <c r="Z100" s="42"/>
+      <c r="AA100" s="42"/>
+      <c r="AB100" s="42"/>
+      <c r="AC100" s="42"/>
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B101" s="42">
+        <v>1</v>
+      </c>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="42"/>
+      <c r="S101" s="42"/>
+      <c r="T101" s="42"/>
+      <c r="U101" s="42"/>
+      <c r="V101" s="42"/>
+      <c r="W101" s="42"/>
+      <c r="X101" s="42"/>
+      <c r="Y101" s="42"/>
+      <c r="Z101" s="42"/>
+      <c r="AA101" s="42"/>
+      <c r="AB101" s="42"/>
+      <c r="AC101" s="42"/>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B102" s="42">
+        <v>2</v>
+      </c>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="42"/>
+      <c r="V102" s="42"/>
+      <c r="W102" s="42"/>
+      <c r="X102" s="42"/>
+      <c r="Y102" s="42"/>
+      <c r="Z102" s="42"/>
+      <c r="AA102" s="42"/>
+      <c r="AB102" s="42"/>
+      <c r="AC102" s="42"/>
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B103" s="42">
+        <v>3</v>
+      </c>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="42"/>
+      <c r="W103" s="42"/>
+      <c r="X103" s="42"/>
+      <c r="Y103" s="42"/>
+      <c r="Z103" s="42"/>
+      <c r="AA103" s="42"/>
+      <c r="AB103" s="42"/>
+      <c r="AC103" s="42"/>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B104" s="58">
+        <v>4</v>
+      </c>
+      <c r="C104" s="60"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="59"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="59"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="59"/>
+      <c r="T104" s="59"/>
+      <c r="U104" s="59"/>
+      <c r="V104" s="59"/>
+      <c r="W104" s="59"/>
+      <c r="X104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="59"/>
+      <c r="AB104" s="59"/>
+      <c r="AC104" s="60"/>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B105" s="58">
+        <v>5</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K105" s="59"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="60"/>
+      <c r="P105" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="42"/>
+      <c r="U105" s="42"/>
+      <c r="V105" s="42"/>
+      <c r="W105" s="42"/>
+      <c r="X105" s="42"/>
+      <c r="Y105" s="42"/>
+      <c r="Z105" s="42"/>
+      <c r="AA105" s="42"/>
+      <c r="AB105" s="42"/>
+      <c r="AC105" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="P105:AC105"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P103:AC103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="P104:AC104"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="P101:AC101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="P102:AC102"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:AC96"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="P100:AC100"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:AC95"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:AC93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:AC94"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:AC97"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:AC91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:AC92"/>
+    <mergeCell ref="C88:AC88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:AC89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:AC90"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:AC85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:AC87"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:AC86"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:AC84"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:AC82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:AC83"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:AC79"/>
+    <mergeCell ref="C80:AC80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:AC81"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>